--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-VitalsBodySite.xlsx
+++ b/docs/VF-VitalsBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -191,6 +191,20 @@
   <si>
     <t>Structure of axillary fossa (body structure)
 76261009 |Skin structure of axilla (body structure)|</t>
+  </si>
+  <si>
+    <t>764473004</t>
+  </si>
+  <si>
+    <t>764473004 |Skin structure of left axilla (body structure)|
+20437008 |Structure of left axillary region (body structure)|</t>
+  </si>
+  <si>
+    <t>764474005</t>
+  </si>
+  <si>
+    <t>764474005 |Skin structure of right axilla (body structure)|
+19654004 |Structure of right axillary region (body structure)|</t>
   </si>
   <si>
     <t>4688642</t>
@@ -1005,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,36 +1180,36 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="E10" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -1209,18 +1223,18 @@
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>36</v>
@@ -1234,44 +1248,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="E14" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
@@ -1285,44 +1299,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="E17" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
@@ -1336,36 +1350,36 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="E20" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1379,18 +1393,18 @@
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>36</v>
@@ -1404,44 +1418,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="E24" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>36</v>
@@ -1455,36 +1469,36 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="E27" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1498,18 +1512,18 @@
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>36</v>
@@ -1523,44 +1537,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="E31" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>36</v>
@@ -1574,53 +1588,53 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="E34" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -1634,18 +1648,18 @@
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>36</v>
@@ -1659,70 +1673,70 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="E39" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
@@ -1736,18 +1750,18 @@
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>36</v>
@@ -1761,44 +1775,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="E45" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>36</v>
@@ -1812,53 +1826,53 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="E48" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -1872,18 +1886,18 @@
         <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>36</v>
@@ -1897,70 +1911,70 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="E53" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57">
@@ -1974,18 +1988,18 @@
         <v>36</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>36</v>
@@ -1999,44 +2013,44 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="E59" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>36</v>
@@ -2050,44 +2064,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="E62" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>36</v>
@@ -2101,44 +2115,44 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="E65" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>36</v>
@@ -2152,44 +2166,44 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="E68" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>36</v>
@@ -2199,6 +2213,40 @@
       </c>
       <c r="E70" t="s" s="2">
         <v>238</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
